--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_145__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_145__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5420,133 +5420,133 @@
                   <c:v>0.8250465989112854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.279696702957153</c:v>
+                  <c:v>-1.279698610305786</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>52.45617294311523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.20109367370605</c:v>
+                  <c:v>19.20109176635742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.12153625488281</c:v>
+                  <c:v>47.12153244018555</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-1.964758157730103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.627379894256592</c:v>
+                  <c:v>-1.627377986907959</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.8937366008758545</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.8769533634185791</c:v>
+                  <c:v>-0.8769570589065552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.5635620355606079</c:v>
+                  <c:v>-0.5635583400726318</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.488256216049194</c:v>
+                  <c:v>1.488258123397827</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.23433685302734</c:v>
+                  <c:v>51.23432922363281</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.07126259803772</c:v>
+                  <c:v>-2.071268081665039</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-1.243021607398987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.853725910186768</c:v>
+                  <c:v>1.85371470451355</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>34.4744987487793</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.12394654750824</c:v>
+                  <c:v>-1.123944640159607</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>49.84540176391602</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.9463277459144592</c:v>
+                  <c:v>-0.9463315010070801</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-1.040876984596252</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.94972038269043</c:v>
+                  <c:v>-1.949716567993164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.258718252182007</c:v>
+                  <c:v>2.258721828460693</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>37.75368118286133</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2486938387155533</c:v>
+                  <c:v>0.2486957013607025</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.4526529014110565</c:v>
+                  <c:v>-0.4526510536670685</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-1.137003898620605</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.61426842212677</c:v>
+                  <c:v>-1.614264726638794</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>51.27817535400391</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2432971000671387</c:v>
+                  <c:v>0.2433008253574371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>49.42676162719727</c:v>
+                  <c:v>49.42675399780273</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-0.7053598165512085</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.020481586456299</c:v>
+                  <c:v>-1.020485401153564</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2.19808030128479</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.552670240402222</c:v>
+                  <c:v>-1.552672147750854</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.155170798301697</c:v>
+                  <c:v>1.155174493789673</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>52.50598526000977</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.3203414082527161</c:v>
+                  <c:v>-0.320339560508728</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.30677223205566</c:v>
+                  <c:v>25.30677604675293</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.621701717376709</c:v>
+                  <c:v>5.621695995330811</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4960916340351105</c:v>
+                  <c:v>0.4960934817790985</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30.86835670471191</c:v>
+                  <c:v>30.86835479736328</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.6405690908432007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.8454736471176147</c:v>
+                  <c:v>-0.8454829454421997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.701344907283783</c:v>
+                  <c:v>0.701346755027771</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.1873269081115723</c:v>
@@ -5561,43 +5561,43 @@
                   <c:v>-1.136927366256714</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51.57676696777344</c:v>
+                  <c:v>51.5767707824707</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.2342024445533752</c:v>
+                  <c:v>-0.2342061847448349</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-0.8744955658912659</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.1458033323287964</c:v>
+                  <c:v>-0.1458014696836472</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.02772215940058231</c:v>
+                  <c:v>0.02772588841617107</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-0.9061710834503174</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.53907585144043</c:v>
+                  <c:v>-1.539081454277039</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.090268611907959</c:v>
+                  <c:v>2.090274333953857</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.6648712158203125</c:v>
+                  <c:v>-0.6648674607276917</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.4441680610179901</c:v>
+                  <c:v>0.4441643357276917</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.3645279109477997</c:v>
+                  <c:v>-0.3645260632038116</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.264356851577759</c:v>
+                  <c:v>-1.264349341392517</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.092860221862793</c:v>
+                  <c:v>1.092865824699402</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-1.447363018989563</c:v>
@@ -5606,31 +5606,31 @@
                   <c:v>-1.461824536323547</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>12.29380512237549</c:v>
+                  <c:v>12.29381465911865</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.7707677483558655</c:v>
+                  <c:v>-0.7707771062850952</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.7396348714828491</c:v>
+                  <c:v>-0.739642322063446</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.087153911590576</c:v>
+                  <c:v>-1.087146520614624</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>53.24455261230469</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.6670101284980774</c:v>
+                  <c:v>-0.6670082807540894</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.82421350479126</c:v>
+                  <c:v>1.824217200279236</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>-0.6568432450294495</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.4195116460323334</c:v>
+                  <c:v>-0.4195134937763214</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.1712933331727982</c:v>
@@ -5639,52 +5639,52 @@
                   <c:v>51.67962646484375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>47.69005584716797</c:v>
+                  <c:v>47.69005966186523</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.9761123657226562</c:v>
+                  <c:v>-0.9761179685592651</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>13.40996551513672</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.578495860099792</c:v>
+                  <c:v>-1.578492164611816</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.145831823348999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.787482976913452</c:v>
+                  <c:v>2.787484884262085</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>-0.6495499610900879</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19.81620407104492</c:v>
+                  <c:v>19.81620788574219</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-0.4760300815105438</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.4856878817081451</c:v>
+                  <c:v>-0.4856860339641571</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.6154538989067078</c:v>
+                  <c:v>-0.6154483556747437</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>38.26807022094727</c:v>
+                  <c:v>38.26807403564453</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>-0.856988787651062</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.1149222031235695</c:v>
+                  <c:v>-0.1149203404784203</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-0.7350940704345703</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.4605056047439575</c:v>
+                  <c:v>0.460509330034256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-1.279696702957153</v>
+        <v>-1.279698610305786</v>
       </c>
       <c r="G3">
         <v>72</v>
@@ -6475,7 +6475,7 @@
         <v>46.4901</v>
       </c>
       <c r="F5">
-        <v>19.20109367370605</v>
+        <v>19.20109176635742</v>
       </c>
       <c r="G5">
         <v>72</v>
@@ -6507,7 +6507,7 @@
         <v>45.684</v>
       </c>
       <c r="F6">
-        <v>47.12153625488281</v>
+        <v>47.12153244018555</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.627379894256592</v>
+        <v>-1.627377986907959</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.8769533634185791</v>
+        <v>-0.8769570589065552</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.5635620355606079</v>
+        <v>-0.5635583400726318</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.488256216049194</v>
+        <v>1.488258123397827</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>51.23433685302734</v>
+        <v>51.23432922363281</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-2.07126259803772</v>
+        <v>-2.071268081665039</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>48.8989</v>
       </c>
       <c r="F16">
-        <v>1.853725910186768</v>
+        <v>1.85371470451355</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-1.12394654750824</v>
+        <v>-1.123944640159607</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.9463277459144592</v>
+        <v>-0.9463315010070801</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>-1.94972038269043</v>
+        <v>-1.949716567993164</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.258718252182007</v>
+        <v>2.258721828460693</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2486938387155533</v>
+        <v>0.2486957013607025</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.4526529014110565</v>
+        <v>-0.4526510536670685</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-1.61426842212677</v>
+        <v>-1.614264726638794</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.2432971000671387</v>
+        <v>0.2433008253574371</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>52.8303</v>
       </c>
       <c r="F31">
-        <v>49.42676162719727</v>
+        <v>49.42675399780273</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-1.020481586456299</v>
+        <v>-1.020485401153564</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-1.552670240402222</v>
+        <v>-1.552672147750854</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.155170798301697</v>
+        <v>1.155174493789673</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.3203414082527161</v>
+        <v>-0.320339560508728</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>25.30677223205566</v>
+        <v>25.30677604675293</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>54.5459</v>
       </c>
       <c r="F40">
-        <v>5.621701717376709</v>
+        <v>5.621695995330811</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.4960916340351105</v>
+        <v>0.4960934817790985</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>30.86835670471191</v>
+        <v>30.86835479736328</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.8454736471176147</v>
+        <v>-0.8454829454421997</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.701344907283783</v>
+        <v>0.701346755027771</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>50.0511</v>
       </c>
       <c r="F50">
-        <v>51.57676696777344</v>
+        <v>51.5767707824707</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-0.2342024445533752</v>
+        <v>-0.2342061847448349</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-0.1458033323287964</v>
+        <v>-0.1458014696836472</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.02772215940058231</v>
+        <v>0.02772588841617107</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-1.53907585144043</v>
+        <v>-1.539081454277039</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2.090268611907959</v>
+        <v>2.090274333953857</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>-0.6648712158203125</v>
+        <v>-0.6648674607276917</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.4441680610179901</v>
+        <v>0.4441643357276917</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.3645279109477997</v>
+        <v>-0.3645260632038116</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-1.264356851577759</v>
+        <v>-1.264349341392517</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.092860221862793</v>
+        <v>1.092865824699402</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>12.29380512237549</v>
+        <v>12.29381465911865</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-0.7707677483558655</v>
+        <v>-0.7707771062850952</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.7396348714828491</v>
+        <v>-0.739642322063446</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-1.087153911590576</v>
+        <v>-1.087146520614624</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-0.6670101284980774</v>
+        <v>-0.6670082807540894</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.82421350479126</v>
+        <v>1.824217200279236</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>-0.4195116460323334</v>
+        <v>-0.4195134937763214</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>47.69005584716797</v>
+        <v>47.69005966186523</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-0.9761123657226562</v>
+        <v>-0.9761179685592651</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-1.578495860099792</v>
+        <v>-1.578492164611816</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>2.787482976913452</v>
+        <v>2.787484884262085</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>19.81620407104492</v>
+        <v>19.81620788574219</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.4856878817081451</v>
+        <v>-0.4856860339641571</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>-0.6154538989067078</v>
+        <v>-0.6154483556747437</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>38.26807022094727</v>
+        <v>38.26807403564453</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.1149222031235695</v>
+        <v>-0.1149203404784203</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.4605056047439575</v>
+        <v>0.460509330034256</v>
       </c>
     </row>
     <row r="92" spans="1:6">
